--- a/data/Adjective-Adverb/exel/jj-jq.xlsx
+++ b/data/Adjective-Adverb/exel/jj-jq.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2896BB-91B5-4333-AC12-176A12092F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="24000" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>সবচাইতে</t>
   </si>
@@ -139,13 +140,19 @@
   </si>
   <si>
     <t>কেবল</t>
+  </si>
+  <si>
+    <t>বেশি</t>
+  </si>
+  <si>
+    <t>চেয়েও</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +201,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -240,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +287,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +339,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,16 +532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" customHeight="1">
+    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -498,7 +549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -514,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -522,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -530,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -538,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -546,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -554,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -562,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -570,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -578,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -586,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -594,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -602,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -610,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -618,7 +669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -626,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -634,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -642,15 +693,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -658,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -666,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -674,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -682,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -690,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -698,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -706,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -714,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -722,107 +773,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>1</v>
       </c>
     </row>
@@ -833,24 +892,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Adjective-Adverb/exel/jj-jq.xlsx
+++ b/data/Adjective-Adverb/exel/jj-jq.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2896BB-91B5-4333-AC12-176A12092F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E8EA44-19C1-421C-9A58-08E53F97D3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="24000" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
